--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonSource\GADBench_GCN_k_step\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E850B6F-B63D-45E8-BBA5-667FE44C7768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D5A514-8472-46A2-A6B7-D090CA009DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="23025" windowHeight="13665" xr2:uid="{7480FB2B-FA94-4414-BF11-377135392159}"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="23025" windowHeight="13665" firstSheet="1" activeTab="1" xr2:uid="{7480FB2B-FA94-4414-BF11-377135392159}"/>
   </bookViews>
   <sheets>
-    <sheet name="模型参数" sheetId="1" r:id="rId1"/>
+    <sheet name="模型参数" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="实验结果平均值" sheetId="2" r:id="rId2"/>
     <sheet name="GADBench实验结果" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -578,7 +578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,12 +603,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -660,11 +654,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -991,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8298E781-C294-4220-9099-2D743745BB9D}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
@@ -999,7 +990,7 @@
   <cols>
     <col min="1" max="1" width="32.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.53125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.53125" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1010,7 +1001,7 @@
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1022,7 +1013,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="18"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1032,7 +1023,7 @@
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1044,7 +1035,7 @@
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>1E-4</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1056,7 +1047,7 @@
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1068,7 +1059,7 @@
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1080,7 +1071,7 @@
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="16">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1092,7 +1083,7 @@
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1104,7 +1095,7 @@
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1116,7 +1107,7 @@
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <v>0.3</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1128,7 +1119,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="18"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1136,7 +1127,7 @@
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1148,7 +1139,7 @@
       <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1160,7 +1151,7 @@
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1172,7 +1163,7 @@
       <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1184,7 +1175,7 @@
       <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1196,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="18"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1204,7 +1195,7 @@
       <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1216,7 +1207,7 @@
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="16">
         <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1228,7 +1219,7 @@
       <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="16">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1240,7 +1231,7 @@
       <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="16">
         <v>0.5</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1252,7 +1243,7 @@
       <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1264,7 +1255,7 @@
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1276,7 +1267,7 @@
       <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1288,7 +1279,7 @@
         <v>60</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="18"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1296,7 +1287,7 @@
       <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1308,7 +1299,7 @@
       <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="16">
         <v>32</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1320,7 +1311,7 @@
       <c r="B28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="16">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1332,7 +1323,7 @@
       <c r="B29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="16">
         <v>0.5</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1344,7 +1335,7 @@
       <c r="B30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>65</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1356,7 +1347,7 @@
       <c r="B31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1368,7 +1359,7 @@
       <c r="B32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1380,7 +1371,7 @@
         <v>70</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="18"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1388,7 +1379,7 @@
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1400,7 +1391,7 @@
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1412,7 +1403,7 @@
       <c r="B36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="16" t="s">
         <v>74</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1424,7 +1415,7 @@
       <c r="B37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="16" t="s">
         <v>77</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1436,7 +1427,7 @@
       <c r="B38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="16" t="s">
         <v>80</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1448,7 +1439,7 @@
       <c r="B39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1460,7 +1451,7 @@
         <v>82</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="18"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1468,7 +1459,7 @@
       <c r="B41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -1480,7 +1471,7 @@
       <c r="B42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -1492,7 +1483,7 @@
       <c r="B43" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="16" t="s">
         <v>74</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -1504,7 +1495,7 @@
       <c r="B44" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="16" t="s">
         <v>77</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -1516,7 +1507,7 @@
       <c r="B45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="16" t="s">
         <v>80</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -1528,7 +1519,7 @@
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="16" t="s">
         <v>87</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -1540,7 +1531,7 @@
         <v>89</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="18"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
@@ -1548,7 +1539,7 @@
       <c r="B48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -1560,7 +1551,7 @@
       <c r="B49" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -1572,7 +1563,7 @@
       <c r="B50" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="16" t="s">
         <v>93</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -1584,7 +1575,7 @@
       <c r="B51" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="16" t="s">
         <v>77</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -1596,7 +1587,7 @@
       <c r="B52" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="16" t="s">
         <v>96</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -1608,7 +1599,7 @@
       <c r="B53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="16" t="s">
         <v>98</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -1625,7 +1616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309D2F82-FE21-4650-BBC0-234FB41324D5}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -1641,25 +1632,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1713,22 +1704,22 @@
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="2">
         <v>0.61499999999999999</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="2">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="2">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="2">
         <v>41.4</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>3.0659999999999998</v>
       </c>
     </row>
@@ -1736,22 +1727,22 @@
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="2">
         <v>0.65</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="2">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="2">
         <v>79.599999999999994</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>10.776</v>
       </c>
     </row>
@@ -1759,45 +1750,45 @@
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="2">
         <v>0.67</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="2">
         <v>0.06</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="2">
         <v>0.05</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="2">
         <v>77</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>3.9590000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>0.64300000000000002</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>5.5E-2</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>52.6</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>3.0209999999999999</v>
       </c>
     </row>
@@ -1851,22 +1842,22 @@
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="2">
         <v>0.95699999999999996</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="2">
         <v>0.39200000000000002</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="2">
         <v>0.44900000000000001</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="2">
         <v>34.5</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <v>6.16</v>
       </c>
     </row>
@@ -1874,22 +1865,22 @@
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="2">
         <v>0.93600000000000005</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="2">
         <v>0.36399999999999999</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="2">
         <v>0.46899999999999997</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="2">
         <v>36.1</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <v>11.364000000000001</v>
       </c>
     </row>
@@ -1897,45 +1888,45 @@
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="2">
         <v>0.95</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="2">
         <v>0.35699999999999998</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="2">
         <v>0.47399999999999998</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="2">
         <v>39.1</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <v>18.466000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>0.90600000000000003</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>0.33600000000000002</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <v>0.432</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="11">
         <v>47.8</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <v>4.532</v>
       </c>
     </row>
@@ -1958,8 +1949,8 @@
     <col min="1" max="1" width="7.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.73046875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.73046875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1972,10 +1963,10 @@
       <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1986,82 +1977,82 @@
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="23">
         <v>0.61499999999999999</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="24">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="19">
         <v>0.66500000000000004</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="26">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="26" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="19">
         <v>0.67</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="26">
         <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="28" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2075,79 +2066,79 @@
       <c r="C8" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="23">
         <v>0.95699999999999996</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="24">
         <v>0.39200000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="26" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="19">
         <v>0.92800000000000005</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="26">
         <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="19">
         <v>0.95</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="26">
         <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="28" t="s">
         <v>117</v>
       </c>
     </row>
